--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77177.25330344528</v>
+        <v>5151068.340509113</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77177.25330344528</v>
+        <v>5151068.340509113</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959910850.2520293</v>
+        <v>36746248.27083731</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11169.03673279094</v>
+        <v>1007601.873317464</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20568.31567426369</v>
+        <v>1709424.123437483</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29963.78759067605</v>
+        <v>2411246.373557501</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39557.14141788124</v>
+        <v>3112365.200026731</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49150.49229476869</v>
+        <v>3813484.02649596</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58743.84612197386</v>
+        <v>4514602.852965188</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68337.18820128204</v>
+        <v>5215721.679434413</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77930.48898056948</v>
+        <v>5916840.505903638</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>87523.84280777469</v>
+        <v>6617959.332372862</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97117.19368466214</v>
+        <v>7319078.158842087</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>106710.5475118673</v>
+        <v>8020196.985311311</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116303.8983887548</v>
+        <v>8721315.81178054</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125897.25221596</v>
+        <v>9422434.638249774</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135490.6060431651</v>
+        <v>10123553.46471901</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>145083.9598703704</v>
+        <v>10824672.29118824</v>
       </c>
     </row>
   </sheetData>
